--- a/resources/idiomStimuli.xlsx
+++ b/resources/idiomStimuli.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marie\Desktop\Experiment Psycholinguïstiek\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medej\Documents\EXP Psycholinguistics and Language Disorders\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61F4BB5-B632-43C8-BFB1-A2B6FADAD0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B624CA-63EE-4F79-808D-5C324493C916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76A75ED-DB48-4254-B242-F33082D0B1B6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F76A75ED-DB48-4254-B242-F33082D0B1B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Stimuli" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stimuli!$A$1:$G$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stimuli!$A$1:$G$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
   <si>
     <t>stimID</t>
   </si>
@@ -118,33 +118,9 @@
     <t>Sam helpt hem met schoonmaken.</t>
   </si>
   <si>
-    <t>Noah zet er een punt achter.</t>
-  </si>
-  <si>
-    <t>Noah stopt ermee.</t>
-  </si>
-  <si>
-    <t>Noah zet een punt aan het eind van de zin.</t>
-  </si>
-  <si>
-    <t>Noah let goed op de details.</t>
-  </si>
-  <si>
     <t>Nora loopt naast haar schoenen.</t>
   </si>
   <si>
-    <t>Mark laat zijn gezicht zien.</t>
-  </si>
-  <si>
-    <t>Mark is even aanwezig.</t>
-  </si>
-  <si>
-    <t>Mark laat zijn gezicht aan iemand zien.</t>
-  </si>
-  <si>
-    <t>Mark toont zijn echte emoties.</t>
-  </si>
-  <si>
     <t>Stijn loopt me voor de voeten.</t>
   </si>
   <si>
@@ -157,18 +133,6 @@
     <t>Nora doet iets wat ze eigenlijk niet kan.</t>
   </si>
   <si>
-    <t>Sarah heeft het onder de knie.</t>
-  </si>
-  <si>
-    <t>Sarah is er goed in.</t>
-  </si>
-  <si>
-    <t>Sarah heeft iets onder haar knie zitten.</t>
-  </si>
-  <si>
-    <t>Sarah heeft er controle over.</t>
-  </si>
-  <si>
     <t>Julia doet mee voor spek en bonen.</t>
   </si>
   <si>
@@ -205,18 +169,6 @@
     <t>Sofie bewaart eten voor later.</t>
   </si>
   <si>
-    <t>Jeroen moet stoom afblazen.</t>
-  </si>
-  <si>
-    <t>Jeroen heeft gesport en moet een cooling-down doen.</t>
-  </si>
-  <si>
-    <t>Jeroen blaast stoom weg van zijn hete thee.</t>
-  </si>
-  <si>
-    <t>Jeroen is gefrustreerd en moet hierover praten.</t>
-  </si>
-  <si>
     <t>Maud loopt op haar tenen.</t>
   </si>
   <si>
@@ -250,18 +202,6 @@
     <t>Max speelt vals: hij betaalt om te winnen.</t>
   </si>
   <si>
-    <t>Klaas verraadt hem voor geen cent.</t>
-  </si>
-  <si>
-    <t>Klaas vertrouwt hem helemaal niet.</t>
-  </si>
-  <si>
-    <t>Klaas zal hem niet verraden, ook niet voor geld.</t>
-  </si>
-  <si>
-    <t>Klaas is erg betrouwbaar.</t>
-  </si>
-  <si>
     <t>Joep gaat onder de tafel.</t>
   </si>
   <si>
@@ -298,30 +238,6 @@
     <t>Lars krijgt veel kritiek.</t>
   </si>
   <si>
-    <t>Jurre is erg rijk.</t>
-  </si>
-  <si>
-    <t>Jurre staat op het geld.</t>
-  </si>
-  <si>
-    <t>Jurre staat met zijn voet op het geld.</t>
-  </si>
-  <si>
-    <t>Jurre let op het geld.</t>
-  </si>
-  <si>
-    <t>David zet Jesse in de lift.</t>
-  </si>
-  <si>
-    <t>David geeft Jesse een compliment.</t>
-  </si>
-  <si>
-    <t>David zet Jesse in een lift.</t>
-  </si>
-  <si>
-    <t>David tilt Jesse op.</t>
-  </si>
-  <si>
     <t>Lieke gaat voor Bo door het water.</t>
   </si>
   <si>
@@ -344,18 +260,6 @@
   </si>
   <si>
     <t>Floris is erg onhandig.</t>
-  </si>
-  <si>
-    <t>Het komt in orde</t>
-  </si>
-  <si>
-    <t>Het komt voor de brandweer.</t>
-  </si>
-  <si>
-    <t>Er is een melding voor de brandweer.</t>
-  </si>
-  <si>
-    <t>Het is een probleem dat snel opgelost moet worden.</t>
   </si>
   <si>
     <t>Gijs kan het op zijn arm schrijven.</t>
@@ -1295,26 +1199,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B239B8E3-0195-4653-A70B-08E01A340308}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="48.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="48.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1323,234 +1227,234 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
         <v>41</v>
@@ -1562,12 +1466,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1585,12 +1489,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1599,108 +1503,108 @@
         <v>48</v>
       </c>
       <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
         <v>50</v>
       </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
         <v>52</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>53</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>54</v>
       </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
         <v>60</v>
       </c>
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
       <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
         <v>62</v>
       </c>
-      <c r="G16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
         <v>64</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>65</v>
-      </c>
-      <c r="F17" t="s">
-        <v>64</v>
       </c>
       <c r="G17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1711,19 +1615,19 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1734,19 +1638,19 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1754,22 +1658,22 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1777,22 +1681,22 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1800,22 +1704,22 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1823,22 +1727,22 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1846,22 +1750,22 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
         <v>87</v>
       </c>
-      <c r="E24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" t="s">
-        <v>89</v>
-      </c>
       <c r="G24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1869,207 +1773,23 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G33" xr:uid="{B239B8E3-0195-4653-A70B-08E01A340308}"/>
+  <autoFilter ref="A1:G25" xr:uid="{B239B8E3-0195-4653-A70B-08E01A340308}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
